--- a/data/mixture_final.xlsx
+++ b/data/mixture_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>param1</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ebc_avg</t>
+  </si>
+  <si>
+    <t>ebc_sd</t>
+  </si>
+  <si>
+    <t>ebc_max</t>
+  </si>
+  <si>
+    <t>ebc_min</t>
+  </si>
+  <si>
+    <t>hub_repulsion_mod</t>
   </si>
   <si>
     <t>10_10.0_0.0</t>
@@ -896,13 +911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:AA155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,8 +981,23 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1032,10 +1062,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>26</v>
+      </c>
+      <c r="W2">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X2">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y2">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z2">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1100,10 +1145,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X3">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y3">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z3">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1168,10 +1228,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>28</v>
+      </c>
+      <c r="W4">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X4">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y4">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z4">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1236,10 +1311,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X5">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y5">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z5">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1304,10 +1394,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>30</v>
+      </c>
+      <c r="W6">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X6">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y6">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z6">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1372,10 +1477,25 @@
         <v>0.07441920444147762</v>
       </c>
       <c r="V7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>31</v>
+      </c>
+      <c r="W7">
+        <v>0.03533333333333333</v>
+      </c>
+      <c r="X7">
+        <v>0.01698686345868376</v>
+      </c>
+      <c r="Y7">
+        <v>0.1305050505050505</v>
+      </c>
+      <c r="Z7">
+        <v>0.007189894841409994</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1440,10 +1560,25 @@
         <v>0.09419194850399981</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>32</v>
+      </c>
+      <c r="W8">
+        <v>0.03021324354657688</v>
+      </c>
+      <c r="X8">
+        <v>0.02027820094428647</v>
+      </c>
+      <c r="Y8">
+        <v>0.1622715634336614</v>
+      </c>
+      <c r="Z8">
+        <v>0.008304235077483658</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1508,10 +1643,25 @@
         <v>0.09798006838731482</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W9">
+        <v>0.03167901234567901</v>
+      </c>
+      <c r="X9">
+        <v>0.02081303862245533</v>
+      </c>
+      <c r="Y9">
+        <v>0.1638715302230263</v>
+      </c>
+      <c r="Z9">
+        <v>0.005046478667135754</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1576,10 +1726,25 @@
         <v>0.07419179736517068</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W10">
+        <v>0.0269304152637486</v>
+      </c>
+      <c r="X10">
+        <v>0.01650500229658331</v>
+      </c>
+      <c r="Y10">
+        <v>0.1021928687388319</v>
+      </c>
+      <c r="Z10">
+        <v>0.0008552188552188552</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1644,10 +1809,25 @@
         <v>0.05554668845059504</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>35</v>
+      </c>
+      <c r="W11">
+        <v>0.02301459034792368</v>
+      </c>
+      <c r="X11">
+        <v>0.01157990087133276</v>
+      </c>
+      <c r="Y11">
+        <v>0.06856537528952857</v>
+      </c>
+      <c r="Z11">
+        <v>0.002481453155792456</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1712,10 +1892,25 @@
         <v>0.0431181411417456</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>36</v>
+      </c>
+      <c r="W12">
+        <v>0.02094949494949495</v>
+      </c>
+      <c r="X12">
+        <v>0.008724254273128966</v>
+      </c>
+      <c r="Y12">
+        <v>0.05606405323071988</v>
+      </c>
+      <c r="Z12">
+        <v>0.003700336700336701</v>
+      </c>
+      <c r="AA12">
+        <v>0.07638888888888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1780,10 +1975,25 @@
         <v>0.04728044873196388</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>37</v>
+      </c>
+      <c r="W13">
+        <v>0.01964421997755331</v>
+      </c>
+      <c r="X13">
+        <v>0.009789665219332605</v>
+      </c>
+      <c r="Y13">
+        <v>0.06256820564396327</v>
+      </c>
+      <c r="Z13">
+        <v>0.004552603961694871</v>
+      </c>
+      <c r="AA13">
+        <v>0.5403703703703704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1848,10 +2058,25 @@
         <v>0.04237019657641667</v>
       </c>
       <c r="V14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>38</v>
+      </c>
+      <c r="W14">
+        <v>0.01965544332210999</v>
+      </c>
+      <c r="X14">
+        <v>0.008757972452339176</v>
+      </c>
+      <c r="Y14">
+        <v>0.05269582493824918</v>
+      </c>
+      <c r="Z14">
+        <v>0.004790404881313973</v>
+      </c>
+      <c r="AA14">
+        <v>0.8560485810485811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1916,10 +2141,25 @@
         <v>0.066925533943181</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>39</v>
+      </c>
+      <c r="W15">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="X15">
+        <v>0.01699986104656665</v>
+      </c>
+      <c r="Y15">
+        <v>0.06883121236062414</v>
+      </c>
+      <c r="Z15">
+        <v>0.01089610897454034</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1984,10 +2224,25 @@
         <v>0.06522413631277225</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>40</v>
+      </c>
+      <c r="W16">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="X16">
+        <v>0.01658743081096685</v>
+      </c>
+      <c r="Y16">
+        <v>0.06905509015540483</v>
+      </c>
+      <c r="Z16">
+        <v>0.003871363224530055</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2052,10 +2307,25 @@
         <v>0.06522413631277225</v>
       </c>
       <c r="V17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>41</v>
+      </c>
+      <c r="W17">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="X17">
+        <v>0.01658743081096685</v>
+      </c>
+      <c r="Y17">
+        <v>0.06905509015540483</v>
+      </c>
+      <c r="Z17">
+        <v>0.003871363224530055</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2120,10 +2390,25 @@
         <v>0.08132454103082019</v>
       </c>
       <c r="V18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>42</v>
+      </c>
+      <c r="W18">
+        <v>0.02421838924351487</v>
+      </c>
+      <c r="X18">
+        <v>0.01970056484211187</v>
+      </c>
+      <c r="Y18">
+        <v>0.2304522613065327</v>
+      </c>
+      <c r="Z18">
+        <v>0.003675458219441831</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2188,10 +2473,25 @@
         <v>0.0727079379924966</v>
       </c>
       <c r="V19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>43</v>
+      </c>
+      <c r="W19">
+        <v>0.02249028928425913</v>
+      </c>
+      <c r="X19">
+        <v>0.01844437830241343</v>
+      </c>
+      <c r="Y19">
+        <v>0.2586828758282689</v>
+      </c>
+      <c r="Z19">
+        <v>0.003869065951984659</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2256,10 +2556,25 @@
         <v>0.08801988901742706</v>
       </c>
       <c r="V20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>44</v>
+      </c>
+      <c r="W20">
+        <v>0.02297324460138531</v>
+      </c>
+      <c r="X20">
+        <v>0.02234073220069695</v>
+      </c>
+      <c r="Y20">
+        <v>0.2823670466858677</v>
+      </c>
+      <c r="Z20">
+        <v>0.002415663279596641</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2324,10 +2639,25 @@
         <v>0.07987925280774572</v>
       </c>
       <c r="V21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>45</v>
+      </c>
+      <c r="W21">
+        <v>0.02264049979627869</v>
+      </c>
+      <c r="X21">
+        <v>0.01761548616983323</v>
+      </c>
+      <c r="Y21">
+        <v>0.1699324661355436</v>
+      </c>
+      <c r="Z21">
+        <v>0.002857169795499238</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2392,10 +2722,25 @@
         <v>0.08741434786292863</v>
       </c>
       <c r="V22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>46</v>
+      </c>
+      <c r="W22">
+        <v>0.02485495042781475</v>
+      </c>
+      <c r="X22">
+        <v>0.02042126300142483</v>
+      </c>
+      <c r="Y22">
+        <v>0.1773710992478092</v>
+      </c>
+      <c r="Z22">
+        <v>0.002588174396417042</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2460,10 +2805,25 @@
         <v>0.05601149805048083</v>
       </c>
       <c r="V23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>47</v>
+      </c>
+      <c r="W23">
+        <v>0.01771533342387614</v>
+      </c>
+      <c r="X23">
+        <v>0.01247425003426555</v>
+      </c>
+      <c r="Y23">
+        <v>0.1071897360045999</v>
+      </c>
+      <c r="Z23">
+        <v>0.003903046123197327</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2528,10 +2888,25 @@
         <v>0.05127865022354983</v>
       </c>
       <c r="V24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>48</v>
+      </c>
+      <c r="W24">
+        <v>0.01571804970799946</v>
+      </c>
+      <c r="X24">
+        <v>0.01141228051093351</v>
+      </c>
+      <c r="Y24">
+        <v>0.08832782787458103</v>
+      </c>
+      <c r="Z24">
+        <v>0.002712704949980683</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2596,10 +2971,25 @@
         <v>0.02728297784979475</v>
       </c>
       <c r="V25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>49</v>
+      </c>
+      <c r="W25">
+        <v>0.01273706369686269</v>
+      </c>
+      <c r="X25">
+        <v>0.005314545217557427</v>
+      </c>
+      <c r="Y25">
+        <v>0.03324497644563724</v>
+      </c>
+      <c r="Z25">
+        <v>0.004286626944179412</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2664,10 +3054,25 @@
         <v>0.02292939466782084</v>
       </c>
       <c r="V26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>0.01164294445198968</v>
+      </c>
+      <c r="X26">
+        <v>0.00426066028536704</v>
+      </c>
+      <c r="Y26">
+        <v>0.03420971616323375</v>
+      </c>
+      <c r="Z26">
+        <v>0.00266816223977028</v>
+      </c>
+      <c r="AA26">
+        <v>0.1318253968253968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2732,10 +3137,25 @@
         <v>0.02352533331666728</v>
       </c>
       <c r="V27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>51</v>
+      </c>
+      <c r="W27">
+        <v>0.01109765041423333</v>
+      </c>
+      <c r="X27">
+        <v>0.004685949760108337</v>
+      </c>
+      <c r="Y27">
+        <v>0.03522791736680259</v>
+      </c>
+      <c r="Z27">
+        <v>0.002546435139399963</v>
+      </c>
+      <c r="AA27">
+        <v>0.5679235719560797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2800,10 +3220,25 @@
         <v>0.02489226160641791</v>
       </c>
       <c r="V28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>52</v>
+      </c>
+      <c r="W28">
+        <v>0.01048648648648649</v>
+      </c>
+      <c r="X28">
+        <v>0.005085510937126236</v>
+      </c>
+      <c r="Y28">
+        <v>0.03343786145677179</v>
+      </c>
+      <c r="Z28">
+        <v>0.002929609195940854</v>
+      </c>
+      <c r="AA28">
+        <v>0.9067212445850217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2868,10 +3303,25 @@
         <v>0.06522413631277225</v>
       </c>
       <c r="V29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>53</v>
+      </c>
+      <c r="W29">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="X29">
+        <v>0.01658743081096685</v>
+      </c>
+      <c r="Y29">
+        <v>0.06905509015540483</v>
+      </c>
+      <c r="Z29">
+        <v>0.003871363224530055</v>
+      </c>
+      <c r="AA29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2936,10 +3386,25 @@
         <v>0.03344413378323859</v>
       </c>
       <c r="V30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>54</v>
+      </c>
+      <c r="W30">
+        <v>0.01570680628272251</v>
+      </c>
+      <c r="X30">
+        <v>0.008780127216933175</v>
+      </c>
+      <c r="Y30">
+        <v>0.03561179062017632</v>
+      </c>
+      <c r="Z30">
+        <v>0.001871314387108906</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3004,10 +3469,25 @@
         <v>0.03344413378323859</v>
       </c>
       <c r="V31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>55</v>
+      </c>
+      <c r="W31">
+        <v>0.01570680628272251</v>
+      </c>
+      <c r="X31">
+        <v>0.008780127216933175</v>
+      </c>
+      <c r="Y31">
+        <v>0.03561179062017632</v>
+      </c>
+      <c r="Z31">
+        <v>0.001871314387108906</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3072,10 +3552,25 @@
         <v>0.03651539026993388</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>56</v>
+      </c>
+      <c r="W32">
+        <v>0.01417328478947424</v>
+      </c>
+      <c r="X32">
+        <v>0.009641256930946109</v>
+      </c>
+      <c r="Y32">
+        <v>0.1723113956000414</v>
+      </c>
+      <c r="Z32">
+        <v>0.001587975081872326</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3140,10 +3635,25 @@
         <v>0.05239336058538759</v>
       </c>
       <c r="V33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>57</v>
+      </c>
+      <c r="W33">
+        <v>0.01258590059700553</v>
+      </c>
+      <c r="X33">
+        <v>0.01258517373823772</v>
+      </c>
+      <c r="Y33">
+        <v>0.1731897676432332</v>
+      </c>
+      <c r="Z33">
+        <v>0.001061569613906066</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3208,10 +3718,25 @@
         <v>0.05820969674996673</v>
       </c>
       <c r="V34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>58</v>
+      </c>
+      <c r="W34">
+        <v>0.01296746372325804</v>
+      </c>
+      <c r="X34">
+        <v>0.01400000074924643</v>
+      </c>
+      <c r="Y34">
+        <v>0.1866622167488688</v>
+      </c>
+      <c r="Z34">
+        <v>0.001032441258199276</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3276,10 +3801,25 @@
         <v>0.05600720200700872</v>
       </c>
       <c r="V35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>59</v>
+      </c>
+      <c r="W35">
+        <v>0.01329791730056973</v>
+      </c>
+      <c r="X35">
+        <v>0.01363837412934284</v>
+      </c>
+      <c r="Y35">
+        <v>0.210159508062798</v>
+      </c>
+      <c r="Z35">
+        <v>0.001471469787101505</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3344,10 +3884,25 @@
         <v>0.0448979695325074</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>60</v>
+      </c>
+      <c r="W36">
+        <v>0.01042356965239379</v>
+      </c>
+      <c r="X36">
+        <v>0.010219445338568</v>
+      </c>
+      <c r="Y36">
+        <v>0.1065168269767742</v>
+      </c>
+      <c r="Z36">
+        <v>0.001003102944798826</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3412,10 +3967,25 @@
         <v>0.027830054188406</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>61</v>
+      </c>
+      <c r="W37">
+        <v>0.008097048547356493</v>
+      </c>
+      <c r="X37">
+        <v>0.00618103080545694</v>
+      </c>
+      <c r="Y37">
+        <v>0.0556287128855151</v>
+      </c>
+      <c r="Z37">
+        <v>0.001533142620508653</v>
+      </c>
+      <c r="AA37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3480,10 +4050,25 @@
         <v>0.0203870585854931</v>
       </c>
       <c r="V38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W38">
+        <v>0.006902626194797972</v>
+      </c>
+      <c r="X38">
+        <v>0.004482490956410723</v>
+      </c>
+      <c r="Y38">
+        <v>0.0317215930387573</v>
+      </c>
+      <c r="Z38">
+        <v>0.001293071261245001</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3548,10 +4133,25 @@
         <v>0.01247522410933456</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W39">
+        <v>0.005715556767986234</v>
+      </c>
+      <c r="X39">
+        <v>0.002555501734904453</v>
+      </c>
+      <c r="Y39">
+        <v>0.01812197160690512</v>
+      </c>
+      <c r="Z39">
+        <v>0.001310771349350876</v>
+      </c>
+      <c r="AA39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3616,10 +4216,25 @@
         <v>0.01075693510245888</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W40">
+        <v>0.005161577605472725</v>
+      </c>
+      <c r="X40">
+        <v>0.002060074396304657</v>
+      </c>
+      <c r="Y40">
+        <v>0.01531664425534407</v>
+      </c>
+      <c r="Z40">
+        <v>0.001426913054462267</v>
+      </c>
+      <c r="AA40">
+        <v>0.2087729264199852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3684,10 +4299,25 @@
         <v>0.01156688622578724</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W41">
+        <v>0.004860107649854683</v>
+      </c>
+      <c r="X41">
+        <v>0.002283379293916265</v>
+      </c>
+      <c r="Y41">
+        <v>0.01937005895924108</v>
+      </c>
+      <c r="Z41">
+        <v>0.001080836887450114</v>
+      </c>
+      <c r="AA41">
+        <v>0.6610520012495956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3752,10 +4382,25 @@
         <v>0.01448705827070866</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>66</v>
+      </c>
+      <c r="W42">
+        <v>0.004503717382408796</v>
+      </c>
+      <c r="X42">
+        <v>0.003020698549895854</v>
+      </c>
+      <c r="Y42">
+        <v>0.02367124599198159</v>
+      </c>
+      <c r="Z42">
+        <v>0.001137784849046195</v>
+      </c>
+      <c r="AA42">
+        <v>1.086206381897837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3820,10 +4465,25 @@
         <v>0.03344413378323859</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>67</v>
+      </c>
+      <c r="W43">
+        <v>0.01570680628272251</v>
+      </c>
+      <c r="X43">
+        <v>0.008780127216933175</v>
+      </c>
+      <c r="Y43">
+        <v>0.03561179062017632</v>
+      </c>
+      <c r="Z43">
+        <v>0.001871314387108906</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3888,10 +4548,25 @@
         <v>0.02690128268074239</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>68</v>
+      </c>
+      <c r="W44">
+        <v>0.01231367465975373</v>
+      </c>
+      <c r="X44">
+        <v>0.007112244677597267</v>
+      </c>
+      <c r="Y44">
+        <v>0.02883234304102977</v>
+      </c>
+      <c r="Z44">
+        <v>0.001148646585466069</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3956,10 +4631,25 @@
         <v>0.02690128268074239</v>
       </c>
       <c r="V45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>69</v>
+      </c>
+      <c r="W45">
+        <v>0.01231367465975373</v>
+      </c>
+      <c r="X45">
+        <v>0.007112244677597267</v>
+      </c>
+      <c r="Y45">
+        <v>0.02883234304102977</v>
+      </c>
+      <c r="Z45">
+        <v>0.001148646585466069</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4024,10 +4714,25 @@
         <v>0.02690128268074239</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>70</v>
+      </c>
+      <c r="W46">
+        <v>0.01231367465975373</v>
+      </c>
+      <c r="X46">
+        <v>0.007112244677597267</v>
+      </c>
+      <c r="Y46">
+        <v>0.02883234304102977</v>
+      </c>
+      <c r="Z46">
+        <v>0.001148646585466069</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4092,10 +4797,25 @@
         <v>0.0421050639417896</v>
       </c>
       <c r="V47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>71</v>
+      </c>
+      <c r="W47">
+        <v>0.009509521380014065</v>
+      </c>
+      <c r="X47">
+        <v>0.01051778040493438</v>
+      </c>
+      <c r="Y47">
+        <v>0.1762700729485217</v>
+      </c>
+      <c r="Z47">
+        <v>0.0006696638836040884</v>
+      </c>
+      <c r="AA47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4160,10 +4880,25 @@
         <v>0.0436396112098814</v>
       </c>
       <c r="V48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>72</v>
+      </c>
+      <c r="W48">
+        <v>0.00893205578586973</v>
+      </c>
+      <c r="X48">
+        <v>0.01056974283408404</v>
+      </c>
+      <c r="Y48">
+        <v>0.1397577331773592</v>
+      </c>
+      <c r="Z48">
+        <v>0.0005102815345396167</v>
+      </c>
+      <c r="AA48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4228,10 +4963,25 @@
         <v>0.03336900844062748</v>
       </c>
       <c r="V49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>73</v>
+      </c>
+      <c r="W49">
+        <v>0.007458869925709145</v>
+      </c>
+      <c r="X49">
+        <v>0.007758085781805002</v>
+      </c>
+      <c r="Y49">
+        <v>0.1059169152687387</v>
+      </c>
+      <c r="Z49">
+        <v>0.0009878137883582853</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4296,10 +5046,25 @@
         <v>0.03860203827793915</v>
       </c>
       <c r="V50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>74</v>
+      </c>
+      <c r="W50">
+        <v>0.007512685980612512</v>
+      </c>
+      <c r="X50">
+        <v>0.009079675259870265</v>
+      </c>
+      <c r="Y50">
+        <v>0.1035909907437719</v>
+      </c>
+      <c r="Z50">
+        <v>0.0007401058957507843</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4364,10 +5129,25 @@
         <v>0.018010172565759</v>
       </c>
       <c r="V51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>75</v>
+      </c>
+      <c r="W51">
+        <v>0.00513583286626105</v>
+      </c>
+      <c r="X51">
+        <v>0.004009036805624067</v>
+      </c>
+      <c r="Y51">
+        <v>0.03300971382411235</v>
+      </c>
+      <c r="Z51">
+        <v>0.000882655686751029</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4432,10 +5212,25 @@
         <v>0.01314725599079933</v>
       </c>
       <c r="V52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>76</v>
+      </c>
+      <c r="W52">
+        <v>0.004414340024836619</v>
+      </c>
+      <c r="X52">
+        <v>0.002995201904574695</v>
+      </c>
+      <c r="Y52">
+        <v>0.02198116370000526</v>
+      </c>
+      <c r="Z52">
+        <v>0.0007407190615748563</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4500,10 +5295,25 @@
         <v>0.008649022208623175</v>
       </c>
       <c r="V53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>77</v>
+      </c>
+      <c r="W53">
+        <v>0.003765410343616493</v>
+      </c>
+      <c r="X53">
+        <v>0.001800932408320041</v>
+      </c>
+      <c r="Y53">
+        <v>0.01512931171634475</v>
+      </c>
+      <c r="Z53">
+        <v>0.0008731784236036657</v>
+      </c>
+      <c r="AA53">
+        <v>0.02738095238095238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4568,10 +5378,25 @@
         <v>0.007508625333894054</v>
       </c>
       <c r="V54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>78</v>
+      </c>
+      <c r="W54">
+        <v>0.003393984460484873</v>
+      </c>
+      <c r="X54">
+        <v>0.001483820681583875</v>
+      </c>
+      <c r="Y54">
+        <v>0.01166626157326136</v>
+      </c>
+      <c r="Z54">
+        <v>0.0005790646646857923</v>
+      </c>
+      <c r="AA54">
+        <v>0.2873784772312068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4636,10 +5461,25 @@
         <v>0.007867285870940295</v>
       </c>
       <c r="V55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>79</v>
+      </c>
+      <c r="W55">
+        <v>0.003229235020768832</v>
+      </c>
+      <c r="X55">
+        <v>0.001612584685984175</v>
+      </c>
+      <c r="Y55">
+        <v>0.01356443102467896</v>
+      </c>
+      <c r="Z55">
+        <v>0.0006514007314938544</v>
+      </c>
+      <c r="AA55">
+        <v>0.6745039762359366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4704,10 +5544,25 @@
         <v>0.008431874498807317</v>
       </c>
       <c r="V56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>80</v>
+      </c>
+      <c r="W56">
+        <v>0.00302610724520362</v>
+      </c>
+      <c r="X56">
+        <v>0.001743621284784537</v>
+      </c>
+      <c r="Y56">
+        <v>0.01415083279093067</v>
+      </c>
+      <c r="Z56">
+        <v>0.0003194624828307556</v>
+      </c>
+      <c r="AA56">
+        <v>1.084543460572104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4772,10 +5627,25 @@
         <v>0.02690128268074239</v>
       </c>
       <c r="V57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>81</v>
+      </c>
+      <c r="W57">
+        <v>0.01231367465975373</v>
+      </c>
+      <c r="X57">
+        <v>0.007112244677597267</v>
+      </c>
+      <c r="Y57">
+        <v>0.02883234304102977</v>
+      </c>
+      <c r="Z57">
+        <v>0.001148646585466069</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4840,10 +5710,25 @@
         <v>0.02694783945419543</v>
       </c>
       <c r="V58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>82</v>
+      </c>
+      <c r="W58">
+        <v>0.01119724375538329</v>
+      </c>
+      <c r="X58">
+        <v>0.006980617876610959</v>
+      </c>
+      <c r="Y58">
+        <v>0.02887758892097668</v>
+      </c>
+      <c r="Z58">
+        <v>0.0008295709245043723</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4908,10 +5793,25 @@
         <v>0.02694783945419543</v>
       </c>
       <c r="V59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>83</v>
+      </c>
+      <c r="W59">
+        <v>0.01119724375538329</v>
+      </c>
+      <c r="X59">
+        <v>0.006980617876610959</v>
+      </c>
+      <c r="Y59">
+        <v>0.02887758892097668</v>
+      </c>
+      <c r="Z59">
+        <v>0.0008295709245043723</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4976,10 +5876,25 @@
         <v>0.02694783945419543</v>
       </c>
       <c r="V60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>84</v>
+      </c>
+      <c r="W60">
+        <v>0.01119724375538329</v>
+      </c>
+      <c r="X60">
+        <v>0.006980617876610959</v>
+      </c>
+      <c r="Y60">
+        <v>0.02887758892097668</v>
+      </c>
+      <c r="Z60">
+        <v>0.0008295709245043723</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5044,10 +5959,25 @@
         <v>0.03975913618746296</v>
       </c>
       <c r="V61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>85</v>
+      </c>
+      <c r="W61">
+        <v>0.008733963938098305</v>
+      </c>
+      <c r="X61">
+        <v>0.01099221611949474</v>
+      </c>
+      <c r="Y61">
+        <v>0.2609084186161565</v>
+      </c>
+      <c r="Z61">
+        <v>0.0008017629403848726</v>
+      </c>
+      <c r="AA61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5112,10 +6042,25 @@
         <v>0.04133397051410127</v>
       </c>
       <c r="V62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>86</v>
+      </c>
+      <c r="W62">
+        <v>0.007997355495029912</v>
+      </c>
+      <c r="X62">
+        <v>0.01104384043252905</v>
+      </c>
+      <c r="Y62">
+        <v>0.1953114355746938</v>
+      </c>
+      <c r="Z62">
+        <v>0.0006826206614221344</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5180,10 +6125,25 @@
         <v>0.03757492547069704</v>
       </c>
       <c r="V63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>87</v>
+      </c>
+      <c r="W63">
+        <v>0.007865392006994073</v>
+      </c>
+      <c r="X63">
+        <v>0.009466297348313139</v>
+      </c>
+      <c r="Y63">
+        <v>0.184606544899115</v>
+      </c>
+      <c r="Z63">
+        <v>0.0004221283389167902</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5248,10 +6208,25 @@
         <v>0.03344970096692544</v>
       </c>
       <c r="V64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>88</v>
+      </c>
+      <c r="W64">
+        <v>0.006365388644458412</v>
+      </c>
+      <c r="X64">
+        <v>0.008093204887285849</v>
+      </c>
+      <c r="Y64">
+        <v>0.1016817077293309</v>
+      </c>
+      <c r="Z64">
+        <v>0.000583589271778513</v>
+      </c>
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5316,10 +6291,25 @@
         <v>0.01624531559123069</v>
       </c>
       <c r="V65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>89</v>
+      </c>
+      <c r="W65">
+        <v>0.004384805477311937</v>
+      </c>
+      <c r="X65">
+        <v>0.003628781541157565</v>
+      </c>
+      <c r="Y65">
+        <v>0.02743345517421385</v>
+      </c>
+      <c r="Z65">
+        <v>0.0008001942723392033</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5384,10 +6374,25 @@
         <v>0.01198059508356931</v>
       </c>
       <c r="V66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>90</v>
+      </c>
+      <c r="W66">
+        <v>0.003825039509794031</v>
+      </c>
+      <c r="X66">
+        <v>0.002713435668026564</v>
+      </c>
+      <c r="Y66">
+        <v>0.0183251603703623</v>
+      </c>
+      <c r="Z66">
+        <v>0.0005579815819004809</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5452,10 +6457,25 @@
         <v>0.006555266322473279</v>
       </c>
       <c r="V67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>91</v>
+      </c>
+      <c r="W67">
+        <v>0.003132670655151275</v>
+      </c>
+      <c r="X67">
+        <v>0.001378426242225781</v>
+      </c>
+      <c r="Y67">
+        <v>0.00921376219958525</v>
+      </c>
+      <c r="Z67">
+        <v>0.0003609882399311611</v>
+      </c>
+      <c r="AA67">
+        <v>0.01709401709401709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5520,10 +6540,25 @@
         <v>0.006012056805612309</v>
       </c>
       <c r="V68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>92</v>
+      </c>
+      <c r="W68">
+        <v>0.002833382219428731</v>
+      </c>
+      <c r="X68">
+        <v>0.001172410392894389</v>
+      </c>
+      <c r="Y68">
+        <v>0.01131178782110155</v>
+      </c>
+      <c r="Z68">
+        <v>0.0006207566161573173</v>
+      </c>
+      <c r="AA68">
+        <v>0.2636679437012519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5588,10 +6623,25 @@
         <v>0.006220960551255614</v>
       </c>
       <c r="V69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>93</v>
+      </c>
+      <c r="W69">
+        <v>0.00265664631039308</v>
+      </c>
+      <c r="X69">
+        <v>0.001243483047715763</v>
+      </c>
+      <c r="Y69">
+        <v>0.009413228021079372</v>
+      </c>
+      <c r="Z69">
+        <v>0.0006563413327832535</v>
+      </c>
+      <c r="AA69">
+        <v>0.6694899504346568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5656,10 +6706,25 @@
         <v>0.006922604537098488</v>
       </c>
       <c r="V70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>94</v>
+      </c>
+      <c r="W70">
+        <v>0.002493436071730645</v>
+      </c>
+      <c r="X70">
+        <v>0.001443792333035658</v>
+      </c>
+      <c r="Y70">
+        <v>0.01120319978109386</v>
+      </c>
+      <c r="Z70">
+        <v>0.0005172644890143295</v>
+      </c>
+      <c r="AA70">
+        <v>1.096462487990983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5724,10 +6789,25 @@
         <v>0.02694783945419543</v>
       </c>
       <c r="V71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>95</v>
+      </c>
+      <c r="W71">
+        <v>0.01119724375538329</v>
+      </c>
+      <c r="X71">
+        <v>0.006980617876610959</v>
+      </c>
+      <c r="Y71">
+        <v>0.02887758892097668</v>
+      </c>
+      <c r="Z71">
+        <v>0.0008295709245043723</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5792,10 +6872,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>96</v>
+      </c>
+      <c r="W72">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X72">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y72">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z72">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5860,10 +6955,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>97</v>
+      </c>
+      <c r="W73">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X73">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y73">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z73">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5928,10 +7038,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>98</v>
+      </c>
+      <c r="W74">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X74">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y74">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z74">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5996,10 +7121,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>99</v>
+      </c>
+      <c r="W75">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X75">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y75">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z75">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6064,10 +7204,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>100</v>
+      </c>
+      <c r="W76">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X76">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y76">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z76">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6132,10 +7287,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>101</v>
+      </c>
+      <c r="W77">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X77">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y77">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z77">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6197,10 +7367,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>102</v>
+      </c>
+      <c r="W78">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X78">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y78">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z78">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6262,10 +7447,25 @@
         <v>0.1977777777777778</v>
       </c>
       <c r="V79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>103</v>
+      </c>
+      <c r="W79">
+        <v>0.1658119658119658</v>
+      </c>
+      <c r="X79">
+        <v>0.0276678419666176</v>
+      </c>
+      <c r="Y79">
+        <v>0.1977777777777778</v>
+      </c>
+      <c r="Z79">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6327,10 +7527,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>104</v>
+      </c>
+      <c r="W80">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X80">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y80">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z80">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6392,10 +7607,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>105</v>
+      </c>
+      <c r="W81">
+        <v>0.1606837606837607</v>
+      </c>
+      <c r="X81">
+        <v>0.06165189942079052</v>
+      </c>
+      <c r="Y81">
+        <v>0.2814814814814815</v>
+      </c>
+      <c r="Z81">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6457,10 +7687,25 @@
         <v>0.3296296296296296</v>
       </c>
       <c r="V82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>106</v>
+      </c>
+      <c r="W82">
+        <v>0.1760683760683761</v>
+      </c>
+      <c r="X82">
+        <v>0.09847505985470024</v>
+      </c>
+      <c r="Y82">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="Z82">
+        <v>0.04814814814814815</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6522,10 +7767,25 @@
         <v>0.2898148148148149</v>
       </c>
       <c r="V83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>107</v>
+      </c>
+      <c r="W83">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="X83">
+        <v>0.07698517594710169</v>
+      </c>
+      <c r="Y83">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="Z83">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AA83">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6587,10 +7847,25 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="V84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>108</v>
+      </c>
+      <c r="W84">
+        <v>0.1418803418803419</v>
+      </c>
+      <c r="X84">
+        <v>0.06133301677664431</v>
+      </c>
+      <c r="Y84">
+        <v>0.2444444444444445</v>
+      </c>
+      <c r="Z84">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6655,10 +7930,25 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="V85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>109</v>
+      </c>
+      <c r="W85">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="X85">
+        <v>0.06911180223767843</v>
+      </c>
+      <c r="Y85">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z85">
+        <v>0.07925925925925925</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6723,10 +8013,25 @@
         <v>0.02254432311926781</v>
       </c>
       <c r="V86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>110</v>
+      </c>
+      <c r="W86">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="X86">
+        <v>0.00586904760836077</v>
+      </c>
+      <c r="Y86">
+        <v>0.02417063030797537</v>
+      </c>
+      <c r="Z86">
+        <v>0.0005405732491440943</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6791,10 +8096,25 @@
         <v>0.02254432311926781</v>
       </c>
       <c r="V87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>111</v>
+      </c>
+      <c r="W87">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="X87">
+        <v>0.00586904760836077</v>
+      </c>
+      <c r="Y87">
+        <v>0.02417063030797537</v>
+      </c>
+      <c r="Z87">
+        <v>0.0005405732491440943</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6859,10 +8179,25 @@
         <v>0.03234862234014826</v>
       </c>
       <c r="V88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>112</v>
+      </c>
+      <c r="W88">
+        <v>0.008761460760750699</v>
+      </c>
+      <c r="X88">
+        <v>0.008996148161428566</v>
+      </c>
+      <c r="Y88">
+        <v>0.2351514342895263</v>
+      </c>
+      <c r="Z88">
+        <v>0.0004577008248009834</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6927,10 +8262,25 @@
         <v>0.03003993881474603</v>
       </c>
       <c r="V89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>113</v>
+      </c>
+      <c r="W89">
+        <v>0.006102046112933737</v>
+      </c>
+      <c r="X89">
+        <v>0.007690045409799968</v>
+      </c>
+      <c r="Y89">
+        <v>0.1713182513352555</v>
+      </c>
+      <c r="Z89">
+        <v>0.0004300828556344205</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6995,10 +8345,25 @@
         <v>0.03053575918262728</v>
       </c>
       <c r="V90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <v>114</v>
+      </c>
+      <c r="W90">
+        <v>0.005745058349401884</v>
+      </c>
+      <c r="X90">
+        <v>0.00806270095600737</v>
+      </c>
+      <c r="Y90">
+        <v>0.2009866364046113</v>
+      </c>
+      <c r="Z90">
+        <v>0.000437112880912328</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7063,10 +8428,25 @@
         <v>0.02503032527529526</v>
       </c>
       <c r="V91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <v>115</v>
+      </c>
+      <c r="W91">
+        <v>0.004942608923452775</v>
+      </c>
+      <c r="X91">
+        <v>0.006147106552228308</v>
+      </c>
+      <c r="Y91">
+        <v>0.1187103524207745</v>
+      </c>
+      <c r="Z91">
+        <v>0.0003539144813302071</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7131,10 +8511,25 @@
         <v>0.02343370172389843</v>
       </c>
       <c r="V92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <v>116</v>
+      </c>
+      <c r="W92">
+        <v>0.004473746881482631</v>
+      </c>
+      <c r="X92">
+        <v>0.005588379840313467</v>
+      </c>
+      <c r="Y92">
+        <v>0.08332266018608753</v>
+      </c>
+      <c r="Z92">
+        <v>0.000413847408465388</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7199,10 +8594,25 @@
         <v>0.01240126160210349</v>
       </c>
       <c r="V93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+        <v>117</v>
+      </c>
+      <c r="W93">
+        <v>0.003162578400821247</v>
+      </c>
+      <c r="X93">
+        <v>0.002785914364999283</v>
+      </c>
+      <c r="Y93">
+        <v>0.02456189776544898</v>
+      </c>
+      <c r="Z93">
+        <v>0.0003674093689544722</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7267,10 +8677,25 @@
         <v>0.008219285651566819</v>
       </c>
       <c r="V94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <v>118</v>
+      </c>
+      <c r="W94">
+        <v>0.002683641453510864</v>
+      </c>
+      <c r="X94">
+        <v>0.001847234189079768</v>
+      </c>
+      <c r="Y94">
+        <v>0.01500672614257011</v>
+      </c>
+      <c r="Z94">
+        <v>0.0004902261422354457</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7335,10 +8760,25 @@
         <v>0.004874684397464202</v>
       </c>
       <c r="V95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <v>119</v>
+      </c>
+      <c r="W95">
+        <v>0.002223639503961545</v>
+      </c>
+      <c r="X95">
+        <v>0.001021244714215544</v>
+      </c>
+      <c r="Y95">
+        <v>0.007621036104143672</v>
+      </c>
+      <c r="Z95">
+        <v>0.0003038824565720533</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7403,10 +8843,25 @@
         <v>0.004295767776714631</v>
       </c>
       <c r="V96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+        <v>120</v>
+      </c>
+      <c r="W96">
+        <v>0.001972700826426141</v>
+      </c>
+      <c r="X96">
+        <v>0.0008285301830823394</v>
+      </c>
+      <c r="Y96">
+        <v>0.007460724344751018</v>
+      </c>
+      <c r="Z96">
+        <v>0.000395574158749609</v>
+      </c>
+      <c r="AA96">
+        <v>0.3050590560010187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7471,10 +8926,25 @@
         <v>0.004671724008600602</v>
       </c>
       <c r="V97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <v>121</v>
+      </c>
+      <c r="W97">
+        <v>0.001856477225303931</v>
+      </c>
+      <c r="X97">
+        <v>0.0009387758432676549</v>
+      </c>
+      <c r="Y97">
+        <v>0.00800717325530371</v>
+      </c>
+      <c r="Z97">
+        <v>0.0001432151627536785</v>
+      </c>
+      <c r="AA97">
+        <v>0.6825748787295146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7539,10 +9009,25 @@
         <v>0.005276297456759708</v>
       </c>
       <c r="V98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+        <v>122</v>
+      </c>
+      <c r="W98">
+        <v>0.001704349931918082</v>
+      </c>
+      <c r="X98">
+        <v>0.001105561596341468</v>
+      </c>
+      <c r="Y98">
+        <v>0.01012183251145081</v>
+      </c>
+      <c r="Z98">
+        <v>0.0001095004481595542</v>
+      </c>
+      <c r="AA98">
+        <v>1.046872263436389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7607,10 +9092,25 @@
         <v>0.02254432311926781</v>
       </c>
       <c r="V99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+        <v>123</v>
+      </c>
+      <c r="W99">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="X99">
+        <v>0.00586904760836077</v>
+      </c>
+      <c r="Y99">
+        <v>0.02417063030797537</v>
+      </c>
+      <c r="Z99">
+        <v>0.0005405732491440943</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7675,10 +9175,25 @@
         <v>0.0169772556462411</v>
       </c>
       <c r="V100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <v>124</v>
+      </c>
+      <c r="W100">
+        <v>0.007672634271099744</v>
+      </c>
+      <c r="X100">
+        <v>0.004580115043114159</v>
+      </c>
+      <c r="Y100">
+        <v>0.01823408389128898</v>
+      </c>
+      <c r="Z100">
+        <v>0.0004600551247865865</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7743,10 +9258,25 @@
         <v>0.0169772556462411</v>
       </c>
       <c r="V101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+        <v>125</v>
+      </c>
+      <c r="W101">
+        <v>0.007672634271099744</v>
+      </c>
+      <c r="X101">
+        <v>0.004580115043114159</v>
+      </c>
+      <c r="Y101">
+        <v>0.01823408389128898</v>
+      </c>
+      <c r="Z101">
+        <v>0.0004600551247865865</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7811,10 +9341,25 @@
         <v>0.02177908997285517</v>
       </c>
       <c r="V102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+        <v>126</v>
+      </c>
+      <c r="W102">
+        <v>0.006347919739921112</v>
+      </c>
+      <c r="X102">
+        <v>0.005769169676713049</v>
+      </c>
+      <c r="Y102">
+        <v>0.1464049170178499</v>
+      </c>
+      <c r="Z102">
+        <v>0.0002525566938632206</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7879,10 +9424,25 @@
         <v>0.02796048270855395</v>
       </c>
       <c r="V103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+        <v>127</v>
+      </c>
+      <c r="W103">
+        <v>0.005584741091773507</v>
+      </c>
+      <c r="X103">
+        <v>0.008032768694626767</v>
+      </c>
+      <c r="Y103">
+        <v>0.1955316352781208</v>
+      </c>
+      <c r="Z103">
+        <v>0.0002904381714100654</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7947,10 +9507,25 @@
         <v>0.02550825518858464</v>
       </c>
       <c r="V104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+        <v>128</v>
+      </c>
+      <c r="W104">
+        <v>0.004426293325690978</v>
+      </c>
+      <c r="X104">
+        <v>0.006583499103569542</v>
+      </c>
+      <c r="Y104">
+        <v>0.106240809678128</v>
+      </c>
+      <c r="Z104">
+        <v>0.0003042116592055524</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8015,10 +9590,25 @@
         <v>0.02126949402708956</v>
       </c>
       <c r="V105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+        <v>129</v>
+      </c>
+      <c r="W105">
+        <v>0.003977969931257188</v>
+      </c>
+      <c r="X105">
+        <v>0.005187708708562573</v>
+      </c>
+      <c r="Y105">
+        <v>0.08947577241929021</v>
+      </c>
+      <c r="Z105">
+        <v>0.0002200440037142981</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8083,10 +9673,25 @@
         <v>0.01858975741576696</v>
       </c>
       <c r="V106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
+        <v>130</v>
+      </c>
+      <c r="W106">
+        <v>0.003553192197121578</v>
+      </c>
+      <c r="X106">
+        <v>0.004575562978392377</v>
+      </c>
+      <c r="Y106">
+        <v>0.07308517550402052</v>
+      </c>
+      <c r="Z106">
+        <v>0.0003428731600796779</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8151,10 +9756,25 @@
         <v>0.009190586616452329</v>
       </c>
       <c r="V107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+        <v>131</v>
+      </c>
+      <c r="W107">
+        <v>0.002391186769855516</v>
+      </c>
+      <c r="X107">
+        <v>0.002066235653711968</v>
+      </c>
+      <c r="Y107">
+        <v>0.01870730928432853</v>
+      </c>
+      <c r="Z107">
+        <v>0.0001563815654710161</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8219,10 +9839,25 @@
         <v>0.006068252217735965</v>
       </c>
       <c r="V108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+        <v>132</v>
+      </c>
+      <c r="W108">
+        <v>0.002073527428675975</v>
+      </c>
+      <c r="X108">
+        <v>0.001394972721695579</v>
+      </c>
+      <c r="Y108">
+        <v>0.009716068928446949</v>
+      </c>
+      <c r="Z108">
+        <v>0.0002699034130895421</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8287,10 +9922,25 @@
         <v>0.003724421976126371</v>
       </c>
       <c r="V109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+        <v>133</v>
+      </c>
+      <c r="W109">
+        <v>0.001718901138548814</v>
+      </c>
+      <c r="X109">
+        <v>0.0007866112482891737</v>
+      </c>
+      <c r="Y109">
+        <v>0.005805964644851499</v>
+      </c>
+      <c r="Z109">
+        <v>0.0003130638590058575</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8355,10 +10005,25 @@
         <v>0.003509336097491382</v>
       </c>
       <c r="V110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+        <v>134</v>
+      </c>
+      <c r="W110">
+        <v>0.001516592823265852</v>
+      </c>
+      <c r="X110">
+        <v>0.0007020490813960407</v>
+      </c>
+      <c r="Y110">
+        <v>0.006703247781127435</v>
+      </c>
+      <c r="Z110">
+        <v>0.0003016616137739197</v>
+      </c>
+      <c r="AA110">
+        <v>0.2946486726498766</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8423,10 +10088,25 @@
         <v>0.004029401324390431</v>
       </c>
       <c r="V111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+        <v>135</v>
+      </c>
+      <c r="W111">
+        <v>0.001412602464915322</v>
+      </c>
+      <c r="X111">
+        <v>0.0008355236515306201</v>
+      </c>
+      <c r="Y111">
+        <v>0.008589406317823057</v>
+      </c>
+      <c r="Z111">
+        <v>0.0001272437989446493</v>
+      </c>
+      <c r="AA111">
+        <v>0.7136705387045702</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8491,10 +10171,25 @@
         <v>0.003810626935412635</v>
       </c>
       <c r="V112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22">
+        <v>136</v>
+      </c>
+      <c r="W112">
+        <v>0.001344500127301502</v>
+      </c>
+      <c r="X112">
+        <v>0.0007917553255948358</v>
+      </c>
+      <c r="Y112">
+        <v>0.007364983664081943</v>
+      </c>
+      <c r="Z112">
+        <v>0.0002499815653742477</v>
+      </c>
+      <c r="AA112">
+        <v>1.076650476186253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8559,10 +10254,25 @@
         <v>0.0169772556462411</v>
       </c>
       <c r="V113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+        <v>137</v>
+      </c>
+      <c r="W113">
+        <v>0.007672634271099744</v>
+      </c>
+      <c r="X113">
+        <v>0.004580115043114159</v>
+      </c>
+      <c r="Y113">
+        <v>0.01823408389128898</v>
+      </c>
+      <c r="Z113">
+        <v>0.0004600551247865865</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8627,10 +10337,25 @@
         <v>0.01364522807492318</v>
       </c>
       <c r="V114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
+        <v>138</v>
+      </c>
+      <c r="W114">
+        <v>0.005076142131979696</v>
+      </c>
+      <c r="X114">
+        <v>0.003604494570252226</v>
+      </c>
+      <c r="Y114">
+        <v>0.0146898133661563</v>
+      </c>
+      <c r="Z114">
+        <v>0.0001477738657475545</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8695,10 +10420,25 @@
         <v>0.01364522807492318</v>
       </c>
       <c r="V115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+        <v>139</v>
+      </c>
+      <c r="W115">
+        <v>0.005076142131979696</v>
+      </c>
+      <c r="X115">
+        <v>0.003604494570252226</v>
+      </c>
+      <c r="Y115">
+        <v>0.0146898133661563</v>
+      </c>
+      <c r="Z115">
+        <v>0.0001477738657475545</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8763,10 +10503,25 @@
         <v>0.01957255549794786</v>
       </c>
       <c r="V116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22">
+        <v>140</v>
+      </c>
+      <c r="W116">
+        <v>0.00316922591015665</v>
+      </c>
+      <c r="X116">
+        <v>0.005779289224091911</v>
+      </c>
+      <c r="Y116">
+        <v>0.1919663048395875</v>
+      </c>
+      <c r="Z116">
+        <v>0.0001098726472179563</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8831,10 +10586,25 @@
         <v>0.01281284651176165</v>
       </c>
       <c r="V117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
+        <v>141</v>
+      </c>
+      <c r="W117">
+        <v>0.002175088711143244</v>
+      </c>
+      <c r="X117">
+        <v>0.003273861136444725</v>
+      </c>
+      <c r="Y117">
+        <v>0.06117106284490596</v>
+      </c>
+      <c r="Z117">
+        <v>0.0001507499508581961</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8899,10 +10669,25 @@
         <v>0.01180835885283431</v>
       </c>
       <c r="V118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22">
+        <v>142</v>
+      </c>
+      <c r="W118">
+        <v>0.002084787093459301</v>
+      </c>
+      <c r="X118">
+        <v>0.002968482841101874</v>
+      </c>
+      <c r="Y118">
+        <v>0.05788549853620459</v>
+      </c>
+      <c r="Z118">
+        <v>0.0001001016957699222</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8967,10 +10752,25 @@
         <v>0.01206421498215062</v>
       </c>
       <c r="V119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22">
+        <v>143</v>
+      </c>
+      <c r="W119">
+        <v>0.00198364832763507</v>
+      </c>
+      <c r="X119">
+        <v>0.00309227229614651</v>
+      </c>
+      <c r="Y119">
+        <v>0.05130289588380425</v>
+      </c>
+      <c r="Z119">
+        <v>6.886707573830513e-05</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9035,10 +10835,25 @@
         <v>0.009839412811256281</v>
       </c>
       <c r="V120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22">
+        <v>144</v>
+      </c>
+      <c r="W120">
+        <v>0.001751296338455508</v>
+      </c>
+      <c r="X120">
+        <v>0.002371788328881271</v>
+      </c>
+      <c r="Y120">
+        <v>0.03768211036758777</v>
+      </c>
+      <c r="Z120">
+        <v>8.892779060472151e-05</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9103,10 +10918,25 @@
         <v>0.004530214995467987</v>
       </c>
       <c r="V121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22">
+        <v>145</v>
+      </c>
+      <c r="W121">
+        <v>0.001111417897792756</v>
+      </c>
+      <c r="X121">
+        <v>0.001034909852132933</v>
+      </c>
+      <c r="Y121">
+        <v>0.01051207090663286</v>
+      </c>
+      <c r="Z121">
+        <v>0.0001209839478480393</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9171,10 +11001,25 @@
         <v>0.002950229647026903</v>
       </c>
       <c r="V122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22">
+        <v>146</v>
+      </c>
+      <c r="W122">
+        <v>0.0009335264738226836</v>
+      </c>
+      <c r="X122">
+        <v>0.0006813979704204819</v>
+      </c>
+      <c r="Y122">
+        <v>0.006499495740043569</v>
+      </c>
+      <c r="Z122">
+        <v>0.0001185948981571659</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9239,10 +11084,25 @@
         <v>0.001765382556536019</v>
       </c>
       <c r="V123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22">
+        <v>147</v>
+      </c>
+      <c r="W123">
+        <v>0.0007567615370789903</v>
+      </c>
+      <c r="X123">
+        <v>0.0003729730435201592</v>
+      </c>
+      <c r="Y123">
+        <v>0.003151779178483695</v>
+      </c>
+      <c r="Z123">
+        <v>0.0001250968375971714</v>
+      </c>
+      <c r="AA123">
+        <v>0.03436287522540767</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9307,10 +11167,25 @@
         <v>0.001637625113693442</v>
       </c>
       <c r="V124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22">
+        <v>148</v>
+      </c>
+      <c r="W124">
+        <v>0.0006705434812850906</v>
+      </c>
+      <c r="X124">
+        <v>0.0003313166295807219</v>
+      </c>
+      <c r="Y124">
+        <v>0.003767525779770793</v>
+      </c>
+      <c r="Z124">
+        <v>6.809749506135841e-05</v>
+      </c>
+      <c r="AA124">
+        <v>0.3450197282161016</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9375,10 +11250,25 @@
         <v>0.001848845796221943</v>
       </c>
       <c r="V125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22">
+        <v>149</v>
+      </c>
+      <c r="W125">
+        <v>0.0006224113208428493</v>
+      </c>
+      <c r="X125">
+        <v>0.0003909986367336155</v>
+      </c>
+      <c r="Y125">
+        <v>0.004739395453607164</v>
+      </c>
+      <c r="Z125">
+        <v>0.0001212223342459254</v>
+      </c>
+      <c r="AA125">
+        <v>0.7116992171826115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9443,10 +11333,25 @@
         <v>0.002011220033631657</v>
       </c>
       <c r="V126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
+        <v>150</v>
+      </c>
+      <c r="W126">
+        <v>0.000581400901500097</v>
+      </c>
+      <c r="X126">
+        <v>0.0004375414088132451</v>
+      </c>
+      <c r="Y126">
+        <v>0.004957634008729028</v>
+      </c>
+      <c r="Z126">
+        <v>5.249377040468707e-05</v>
+      </c>
+      <c r="AA126">
+        <v>1.051670161230543</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9511,10 +11416,25 @@
         <v>0.01593450613113639</v>
       </c>
       <c r="V127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
+        <v>151</v>
+      </c>
+      <c r="W127">
+        <v>0.004323590533335094</v>
+      </c>
+      <c r="X127">
+        <v>0.005326485827384861</v>
+      </c>
+      <c r="Y127">
+        <v>0.2696074271477112</v>
+      </c>
+      <c r="Z127">
+        <v>0.0001520467741399313</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9579,10 +11499,25 @@
         <v>0.01362836301023206</v>
       </c>
       <c r="V128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22">
+        <v>152</v>
+      </c>
+      <c r="W128">
+        <v>0.00622524052065648</v>
+      </c>
+      <c r="X128">
+        <v>0.003733286721311171</v>
+      </c>
+      <c r="Y128">
+        <v>0.01465529662184165</v>
+      </c>
+      <c r="Z128">
+        <v>0.00031134507783737</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9647,10 +11582,25 @@
         <v>0.01956698166437094</v>
       </c>
       <c r="V129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22">
+        <v>153</v>
+      </c>
+      <c r="W129">
+        <v>0.005791310780258197</v>
+      </c>
+      <c r="X129">
+        <v>0.005719539429330784</v>
+      </c>
+      <c r="Y129">
+        <v>0.2193917972657553</v>
+      </c>
+      <c r="Z129">
+        <v>0.0002325558913449648</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9715,10 +11665,25 @@
         <v>0.02237188239410315</v>
       </c>
       <c r="V130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22">
+        <v>154</v>
+      </c>
+      <c r="W130">
+        <v>0.004822858628786467</v>
+      </c>
+      <c r="X130">
+        <v>0.006079180960601107</v>
+      </c>
+      <c r="Y130">
+        <v>0.1556923057916841</v>
+      </c>
+      <c r="Z130">
+        <v>1.160232870599093e-05</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9783,10 +11748,25 @@
         <v>0.02559847808450379</v>
       </c>
       <c r="V131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
+        <v>155</v>
+      </c>
+      <c r="W131">
+        <v>0.004210349761937246</v>
+      </c>
+      <c r="X131">
+        <v>0.007649652039043273</v>
+      </c>
+      <c r="Y131">
+        <v>0.1833017342530437</v>
+      </c>
+      <c r="Z131">
+        <v>9.892932078417635e-05</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9851,10 +11831,25 @@
         <v>0.01980548008303284</v>
       </c>
       <c r="V132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
+        <v>156</v>
+      </c>
+      <c r="W132">
+        <v>0.003468503460783852</v>
+      </c>
+      <c r="X132">
+        <v>0.005221929502368028</v>
+      </c>
+      <c r="Y132">
+        <v>0.1040729677248593</v>
+      </c>
+      <c r="Z132">
+        <v>0.0002033960685429358</v>
+      </c>
+      <c r="AA132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9919,10 +11914,25 @@
         <v>0.01481958982654001</v>
       </c>
       <c r="V133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22">
+        <v>157</v>
+      </c>
+      <c r="W133">
+        <v>0.0027567036210712</v>
+      </c>
+      <c r="X133">
+        <v>0.003644227216577155</v>
+      </c>
+      <c r="Y133">
+        <v>0.06201058813061307</v>
+      </c>
+      <c r="Z133">
+        <v>0.0002660677130040447</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9987,10 +11997,25 @@
         <v>0.01353547800422468</v>
       </c>
       <c r="V134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22">
+        <v>158</v>
+      </c>
+      <c r="W134">
+        <v>0.00256353189225686</v>
+      </c>
+      <c r="X134">
+        <v>0.003215859556294859</v>
+      </c>
+      <c r="Y134">
+        <v>0.04261064966418148</v>
+      </c>
+      <c r="Z134">
+        <v>0.0002293080488596221</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10055,10 +12080,25 @@
         <v>0.006652893183603228</v>
       </c>
       <c r="V135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22">
+        <v>159</v>
+      </c>
+      <c r="W135">
+        <v>0.001724780284241135</v>
+      </c>
+      <c r="X135">
+        <v>0.001501553705463807</v>
+      </c>
+      <c r="Y135">
+        <v>0.014163995626956</v>
+      </c>
+      <c r="Z135">
+        <v>0.0002700144188017262</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10123,10 +12163,25 @@
         <v>0.004234828836526019</v>
       </c>
       <c r="V136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22">
+        <v>160</v>
+      </c>
+      <c r="W136">
+        <v>0.001440964079141265</v>
+      </c>
+      <c r="X136">
+        <v>0.0009782572761878536</v>
+      </c>
+      <c r="Y136">
+        <v>0.008884511999196024</v>
+      </c>
+      <c r="Z136">
+        <v>0.0002194810801177568</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10191,10 +12246,25 @@
         <v>0.002707555141723826</v>
       </c>
       <c r="V137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22">
+        <v>161</v>
+      </c>
+      <c r="W137">
+        <v>0.00118848795665335</v>
+      </c>
+      <c r="X137">
+        <v>0.000562882963381769</v>
+      </c>
+      <c r="Y137">
+        <v>0.004310468082885968</v>
+      </c>
+      <c r="Z137">
+        <v>0.000197133910408172</v>
+      </c>
+      <c r="AA137">
+        <v>0.03542468539372564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10259,10 +12329,25 @@
         <v>0.002531908589166318</v>
       </c>
       <c r="V138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22">
+        <v>162</v>
+      </c>
+      <c r="W138">
+        <v>0.001056747910499501</v>
+      </c>
+      <c r="X138">
+        <v>0.0005127186592978658</v>
+      </c>
+      <c r="Y138">
+        <v>0.006250678576450346</v>
+      </c>
+      <c r="Z138">
+        <v>9.473027194375508e-05</v>
+      </c>
+      <c r="AA138">
+        <v>0.3173103780750552</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10327,10 +12412,25 @@
         <v>0.002748606208475719</v>
       </c>
       <c r="V139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22">
+        <v>163</v>
+      </c>
+      <c r="W139">
+        <v>0.0009874073474406577</v>
+      </c>
+      <c r="X139">
+        <v>0.0005686667199530475</v>
+      </c>
+      <c r="Y139">
+        <v>0.005785886727686845</v>
+      </c>
+      <c r="Z139">
+        <v>8.035574633852523e-05</v>
+      </c>
+      <c r="AA139">
+        <v>0.7391682019008021</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10395,10 +12495,25 @@
         <v>0.00291406833603698</v>
       </c>
       <c r="V140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
+        <v>164</v>
+      </c>
+      <c r="W140">
+        <v>0.0009253163618206635</v>
+      </c>
+      <c r="X140">
+        <v>0.0006087454012406374</v>
+      </c>
+      <c r="Y140">
+        <v>0.006914733155466088</v>
+      </c>
+      <c r="Z140">
+        <v>8.360015240162044e-05</v>
+      </c>
+      <c r="AA140">
+        <v>1.074222617371724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10463,10 +12578,25 @@
         <v>0.01362836301023206</v>
       </c>
       <c r="V141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22">
+        <v>165</v>
+      </c>
+      <c r="W141">
+        <v>0.00622524052065648</v>
+      </c>
+      <c r="X141">
+        <v>0.003733286721311171</v>
+      </c>
+      <c r="Y141">
+        <v>0.01465529662184165</v>
+      </c>
+      <c r="Z141">
+        <v>0.00031134507783737</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10531,10 +12661,25 @@
         <v>0.1232977068283191</v>
       </c>
       <c r="V142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22">
+        <v>166</v>
+      </c>
+      <c r="W142">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="X142">
+        <v>0.03012756358714487</v>
+      </c>
+      <c r="Y142">
+        <v>0.1339725580541908</v>
+      </c>
+      <c r="Z142">
+        <v>0.01691318432134758</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10599,10 +12744,25 @@
         <v>0.1232977068283191</v>
       </c>
       <c r="V143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22">
+        <v>167</v>
+      </c>
+      <c r="W143">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="X143">
+        <v>0.03012756358714487</v>
+      </c>
+      <c r="Y143">
+        <v>0.1339725580541908</v>
+      </c>
+      <c r="Z143">
+        <v>0.01691318432134758</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10667,10 +12827,25 @@
         <v>0.1232977068283191</v>
       </c>
       <c r="V144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
+        <v>168</v>
+      </c>
+      <c r="W144">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="X144">
+        <v>0.03012756358714487</v>
+      </c>
+      <c r="Y144">
+        <v>0.1339725580541908</v>
+      </c>
+      <c r="Z144">
+        <v>0.01691318432134758</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10735,10 +12910,25 @@
         <v>0.1232977068283191</v>
       </c>
       <c r="V145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+        <v>169</v>
+      </c>
+      <c r="W145">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="X145">
+        <v>0.03012756358714487</v>
+      </c>
+      <c r="Y145">
+        <v>0.1339725580541908</v>
+      </c>
+      <c r="Z145">
+        <v>0.01691318432134758</v>
+      </c>
+      <c r="AA145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10803,10 +12993,25 @@
         <v>0.143150151600732</v>
       </c>
       <c r="V146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
+        <v>170</v>
+      </c>
+      <c r="W146">
+        <v>0.05389675870348139</v>
+      </c>
+      <c r="X146">
+        <v>0.03314260823643923</v>
+      </c>
+      <c r="Y146">
+        <v>0.2130612244897959</v>
+      </c>
+      <c r="Z146">
+        <v>0.01535071934829394</v>
+      </c>
+      <c r="AA146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10871,10 +13076,25 @@
         <v>0.1189919955038171</v>
       </c>
       <c r="V147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22">
+        <v>171</v>
+      </c>
+      <c r="W147">
+        <v>0.05751740696278512</v>
+      </c>
+      <c r="X147">
+        <v>0.02863421032695978</v>
+      </c>
+      <c r="Y147">
+        <v>0.1471896748639458</v>
+      </c>
+      <c r="Z147">
+        <v>0.01597218143692288</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10939,10 +13159,25 @@
         <v>0.1305841592471482</v>
       </c>
       <c r="V148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
+        <v>172</v>
+      </c>
+      <c r="W148">
+        <v>0.05682593037214886</v>
+      </c>
+      <c r="X148">
+        <v>0.03118024551908851</v>
+      </c>
+      <c r="Y148">
+        <v>0.15443112395764</v>
+      </c>
+      <c r="Z148">
+        <v>0.01205724849218387</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -11007,10 +13242,25 @@
         <v>0.1754178312293242</v>
       </c>
       <c r="V149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
+        <v>173</v>
+      </c>
+      <c r="W149">
+        <v>0.05320528211284514</v>
+      </c>
+      <c r="X149">
+        <v>0.04216263746963009</v>
+      </c>
+      <c r="Y149">
+        <v>0.2765985421160242</v>
+      </c>
+      <c r="Z149">
+        <v>0.01672282933574055</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -11075,10 +13325,25 @@
         <v>0.1565891387279948</v>
       </c>
       <c r="V150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22">
+        <v>174</v>
+      </c>
+      <c r="W150">
+        <v>0.04922929171668668</v>
+      </c>
+      <c r="X150">
+        <v>0.03600979420245587</v>
+      </c>
+      <c r="Y150">
+        <v>0.2337237992941538</v>
+      </c>
+      <c r="Z150">
+        <v>0.01454421768707483</v>
+      </c>
+      <c r="AA150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11143,10 +13408,25 @@
         <v>0.09852434300393484</v>
       </c>
       <c r="V151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
+        <v>175</v>
+      </c>
+      <c r="W151">
+        <v>0.04289075630252101</v>
+      </c>
+      <c r="X151">
+        <v>0.02262187307949931</v>
+      </c>
+      <c r="Y151">
+        <v>0.1435463232912212</v>
+      </c>
+      <c r="Z151">
+        <v>0.0061865889212828</v>
+      </c>
+      <c r="AA151">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11211,10 +13491,25 @@
         <v>0.0779565921606738</v>
       </c>
       <c r="V152" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+        <v>176</v>
+      </c>
+      <c r="W152">
+        <v>0.03952941176470588</v>
+      </c>
+      <c r="X152">
+        <v>0.01663632195188601</v>
+      </c>
+      <c r="Y152">
+        <v>0.09892452218982831</v>
+      </c>
+      <c r="Z152">
+        <v>0.01454616132167153</v>
+      </c>
+      <c r="AA152">
+        <v>0.1742424242424242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11279,10 +13574,25 @@
         <v>0.07109491415613864</v>
       </c>
       <c r="V153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
+        <v>177</v>
+      </c>
+      <c r="W153">
+        <v>0.03695558223289316</v>
+      </c>
+      <c r="X153">
+        <v>0.01236061766692348</v>
+      </c>
+      <c r="Y153">
+        <v>0.07998833819241979</v>
+      </c>
+      <c r="Z153">
+        <v>0.01221768707482993</v>
+      </c>
+      <c r="AA153">
+        <v>0.3549206349206349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11347,10 +13657,25 @@
         <v>0.07526085441391564</v>
       </c>
       <c r="V154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
+        <v>178</v>
+      </c>
+      <c r="W154">
+        <v>0.03420888355342137</v>
+      </c>
+      <c r="X154">
+        <v>0.01672545538528864</v>
+      </c>
+      <c r="Y154">
+        <v>0.1068018965161823</v>
+      </c>
+      <c r="Z154">
+        <v>0.009523809523809523</v>
+      </c>
+      <c r="AA154">
+        <v>0.9001851851851852</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11415,7 +13740,22 @@
         <v>0.1232977068283191</v>
       </c>
       <c r="V155" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="W155">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="X155">
+        <v>0.03012756358714487</v>
+      </c>
+      <c r="Y155">
+        <v>0.1339725580541908</v>
+      </c>
+      <c r="Z155">
+        <v>0.01691318432134758</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
